--- a/src/main/resources/test_data/massaDeDados.xlsx
+++ b/src/main/resources/test_data/massaDeDados.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreLuizdaSilva\Documents\curso-BDD-comCucumberEmJava\automacao-demoblaze\src\main\resources\test_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44A571B-FDFB-483E-9413-DC2315140379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="dadosDeAcesso" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +24,31 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>senha</t>
+  </si>
+  <si>
+    <t>nomeDeUsuário</t>
+  </si>
+  <si>
+    <t>ID_0001</t>
+  </si>
+  <si>
+    <t>André Automatizador</t>
+  </si>
+  <si>
+    <t>automacaoteste</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +359,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/test_data/massaDeDados.xlsx
+++ b/src/main/resources/test_data/massaDeDados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreLuizdaSilva\Documents\curso-BDD-comCucumberEmJava\automacao-demoblaze\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44A571B-FDFB-483E-9413-DC2315140379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF8D1C9-1AF5-49FC-9869-78853E7822C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>automacaoteste</t>
+  </si>
+  <si>
+    <t>ID_0002</t>
   </si>
 </sst>
 </file>
@@ -360,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,6 +397,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/test_data/massaDeDados.xlsx
+++ b/src/main/resources/test_data/massaDeDados.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreLuizdaSilva\Documents\curso-BDD-comCucumberEmJava\automacao-demoblaze\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF8D1C9-1AF5-49FC-9869-78853E7822C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA144D01-0551-4B7A-9FDB-595CB9AB9153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="dadosDeAcesso" sheetId="1" r:id="rId1"/>
+    <sheet name="dadosDeCadastro" sheetId="2" r:id="rId1"/>
+    <sheet name="dadosDeAcesso" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -47,13 +48,33 @@
   <si>
     <t>ID_0002</t>
   </si>
+  <si>
+    <t>SENHA_EXISTENTE</t>
+  </si>
+  <si>
+    <t>USUARIO_EXISTENTE</t>
+  </si>
+  <si>
+    <t>nomeDEUsuário</t>
+  </si>
+  <si>
+    <t>ID_0004</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -81,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -98,6 +120,1733 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dadosDeAcesso!$A$3:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ID_0002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>André Automatizador</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>dadosDeAcesso!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>senha</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>automacaoteste</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>dadosDeAcesso!$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FDAA-466C-A1E8-AE66A7816C98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="401147080"/>
+        <c:axId val="401152120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="401147080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="401152120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="401152120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="401147080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dadosDeAcesso!$A$3:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ID_0002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>André Automatizador</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>dadosDeAcesso!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>senha</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>automacaoteste</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>dadosDeAcesso!$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D5F-4FD7-8F6F-A66415F494AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="282532824"/>
+        <c:axId val="584561992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="282532824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584561992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="584561992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="282532824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F99C5C-7BC5-0E89-08A7-FDB3F281608F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1166812</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{799DCD61-E027-8E4B-6BAB-3754D44896BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -362,11 +2111,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D545E6-6286-4A87-A380-ACAF904E063F}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,5 +2201,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/test_data/massaDeDados.xlsx
+++ b/src/main/resources/test_data/massaDeDados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreLuizdaSilva\Documents\curso-BDD-comCucumberEmJava\automacao-demoblaze\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA144D01-0551-4B7A-9FDB-595CB9AB9153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A873A4-5BAD-48CC-A209-98FE3EF48F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dadosDeCadastro" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -60,12 +60,21 @@
   <si>
     <t>ID_0004</t>
   </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>emailparatestesautomacao@gmail.com</t>
+  </si>
+  <si>
+    <t>ID_0006</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +86,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,14 +116,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -204,12 +224,9 @@
             <c:strRef>
               <c:f>dadosDeAcesso!$C$1:$C$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>senha</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>automacaoteste</c:v>
+                  <c:v>email</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -220,9 +237,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -486,12 +500,9 @@
             <c:strRef>
               <c:f>dadosDeAcesso!$C$1:$C$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>senha</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>automacaoteste</c:v>
+                  <c:v>email</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -502,9 +513,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2114,8 +2122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D545E6-6286-4A87-A380-ACAF904E063F}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2154,19 +2162,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2174,34 +2183,56 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{8424C5DD-A1AB-44D2-A642-0D59C61BDAA4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/main/resources/test_data/massaDeDados.xlsx
+++ b/src/main/resources/test_data/massaDeDados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreLuizdaSilva\Documents\curso-BDD-comCucumberEmJava\automacao-demoblaze\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A873A4-5BAD-48CC-A209-98FE3EF48F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48751101-2D19-42AC-BC2D-2F77EB8DD58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>ID_0006</t>
+  </si>
+  <si>
+    <t>ID_0007</t>
+  </si>
+  <si>
+    <t>sem email</t>
   </si>
 </sst>
 </file>
@@ -2162,10 +2168,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2227,6 +2233,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{8424C5DD-A1AB-44D2-A642-0D59C61BDAA4}"/>

--- a/src/main/resources/test_data/massaDeDados.xlsx
+++ b/src/main/resources/test_data/massaDeDados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreLuizdaSilva\Documents\curso-BDD-comCucumberEmJava\automacao-demoblaze\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48751101-2D19-42AC-BC2D-2F77EB8DD58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064FC656-3CFB-4B32-825E-1975827660FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>sem email</t>
+  </si>
+  <si>
+    <t>ID_0008</t>
   </si>
 </sst>
 </file>
@@ -2168,10 +2171,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2247,6 +2250,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{8424C5DD-A1AB-44D2-A642-0D59C61BDAA4}"/>

--- a/src/main/resources/test_data/massaDeDados.xlsx
+++ b/src/main/resources/test_data/massaDeDados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreLuizdaSilva\Documents\curso-BDD-comCucumberEmJava\automacao-demoblaze\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064FC656-3CFB-4B32-825E-1975827660FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29D4EF6-74C4-4927-93E4-CE8E90EF3E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dadosDeCadastro" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>ID_0008</t>
+  </si>
+  <si>
+    <t>ID_0009</t>
   </si>
 </sst>
 </file>
@@ -2171,10 +2174,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2264,6 +2267,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{8424C5DD-A1AB-44D2-A642-0D59C61BDAA4}"/>

--- a/src/main/resources/test_data/massaDeDados.xlsx
+++ b/src/main/resources/test_data/massaDeDados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreLuizdaSilva\Documents\curso-BDD-comCucumberEmJava\automacao-demoblaze\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29D4EF6-74C4-4927-93E4-CE8E90EF3E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49CD699-1BD5-452E-B7E5-534C39075132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>ID_0009</t>
+  </si>
+  <si>
+    <t>ID_0010</t>
   </si>
 </sst>
 </file>
@@ -2174,10 +2177,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2281,6 +2284,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{8424C5DD-A1AB-44D2-A642-0D59C61BDAA4}"/>

--- a/src/main/resources/test_data/massaDeDados.xlsx
+++ b/src/main/resources/test_data/massaDeDados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreLuizdaSilva\Documents\curso-BDD-comCucumberEmJava\automacao-demoblaze\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49CD699-1BD5-452E-B7E5-534C39075132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1CAB81-890F-4ED4-B264-1B0DE8CCEBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>ID_0010</t>
+  </si>
+  <si>
+    <t>ID_0011</t>
   </si>
 </sst>
 </file>
@@ -2177,10 +2180,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2298,6 +2301,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{8424C5DD-A1AB-44D2-A642-0D59C61BDAA4}"/>

--- a/src/main/resources/test_data/massaDeDados.xlsx
+++ b/src/main/resources/test_data/massaDeDados.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreLuizdaSilva\Documents\curso-BDD-comCucumberEmJava\automacao-demoblaze\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1CAB81-890F-4ED4-B264-1B0DE8CCEBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D043580C-14A0-413D-8C03-775C667864A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dadosDeCadastro" sheetId="2" r:id="rId1"/>
-    <sheet name="dadosDeAcesso" sheetId="1" r:id="rId2"/>
+    <sheet name="dadosPessoaisCompra" sheetId="3" r:id="rId2"/>
+    <sheet name="dadosDeAcesso" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -86,6 +87,45 @@
   </si>
   <si>
     <t>ID_0011</t>
+  </si>
+  <si>
+    <t>ID_0012</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>país</t>
+  </si>
+  <si>
+    <t>cidade</t>
+  </si>
+  <si>
+    <t>cartão</t>
+  </si>
+  <si>
+    <t>mês</t>
+  </si>
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>André</t>
+  </si>
+  <si>
+    <t>brasil</t>
+  </si>
+  <si>
+    <t>santo andré</t>
+  </si>
+  <si>
+    <t>"1234567898765"</t>
+  </si>
+  <si>
+    <t>"8"</t>
+  </si>
+  <si>
+    <t>"1998"</t>
   </si>
 </sst>
 </file>
@@ -138,10 +178,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2179,11 +2221,77 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB14018-5E45-4229-AD96-11C2E9F0EF68}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2315,6 +2423,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{8424C5DD-A1AB-44D2-A642-0D59C61BDAA4}"/>
